--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Diplom-QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375C7A1-AEB5-4AD8-A54F-AF2BF29C482C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -86,15 +85,6 @@
     <t xml:space="preserve">Модуль </t>
   </si>
   <si>
-    <t>Авторизация в мобильном приложении "Мобильный хоспис" (Позитивный)</t>
-  </si>
-  <si>
-    <t>Поле "Логин" пустое, при авторизации в мобильном приложении "Мобильный хоспис" (Негативный)</t>
-  </si>
-  <si>
-    <t>Поле "Пароль" пустое, при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
     <t>Вкладка "Авторизация"</t>
   </si>
   <si>
@@ -116,15 +106,6 @@
     <t>Развернуть/свернуть тематическую цитату</t>
   </si>
   <si>
-    <t>Развернуть/свернуть тематическую цитату, во вкладке "Главное - жить любя", мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Просмотр ссылки "Политика конфиденциальности" во вкладке "О приложении" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Просмотр ссылки "Пользовательское соглашение" во вкладке "О приложении" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>Поле "Пароль"</t>
   </si>
   <si>
@@ -146,45 +127,9 @@
     <t>Фильтрация заявок по критерию "Отмененные"</t>
   </si>
   <si>
-    <t>Переход во вкладку "Все Новости" через главное меню мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Переход во вкладку "Все Заявки" через главное меню мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Фильтрация заявок по критерию "Открыта" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Фильтрация заявок по критерию "В работе" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Фильтрация заявок по критерию "Выполнена" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Фильтрация заявок по критерию "Отмененные" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Создание заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Поле "Тема" пустое, при создании заявки, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Поле "Исполнитель" пустое, при создании заявки, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
     <t>Редактирование заявки, находящаяся в статусе "Открыта"</t>
   </si>
   <si>
-    <t>Редактирование заявки, находящаяся в статусе "Открыта" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Смена статуса заявки, находящаяся в статусе "Открыта" на статус "В работе", во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Смена статуса заявки, находящаяся в статусе "Открыта" на статус "Отменена", во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>Смена статуса заявки, находящаяся в статусе "Открыта"</t>
   </si>
   <si>
@@ -194,24 +139,9 @@
     <t>Добавление комментария к созданной заявке</t>
   </si>
   <si>
-    <t>Смена статуса заявки, с истекшим сроком исполнения, находящаяся в статусе "Открыта" на статус "В работу", во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>Сброс заявки, находящейся в статусе "В работе", в которой "Автор" и "Исполнитель" заявки совпадают</t>
   </si>
   <si>
-    <t>Сброс заявки, находящаяся в статусе "В работе" , в которой "Автор" и "Исполнитель" заявки совпадают, во вкладке "Заявки" мобильного приложения "Мобильный хоспис" (Позитивный)</t>
-  </si>
-  <si>
-    <t>Сброс заявки, находящаяся в статусе "В работе" , в которой "Автор" и "Исполнитель" заявки совпадают, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Просмотр новостей во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Сортировка новостей во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>Просмотр новостей</t>
   </si>
   <si>
@@ -221,220 +151,289 @@
     <t>Фильтрация новостей по категории "Объявление"</t>
   </si>
   <si>
-    <t>Фильтрация новостей по категории "Объявление", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей по категории "День рождения", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>Фильтрация новостей по категории "День рождения"</t>
   </si>
   <si>
     <t>Фильтрация новостей по категории "Зарплата"</t>
   </si>
   <si>
-    <t>Фильтрация новостей по категории "Зарплата", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей по категории "Профсоюз", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>Фильтрация новостей по категории "Профсоюз"</t>
   </si>
   <si>
-    <t>Фильтрация новостей по категории "Праздник", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>Фильтрация новостей по категории "Праздник"</t>
   </si>
   <si>
-    <t>Фильтрация новостей по категории "Массаж", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>Фильтрация новостей по категории "Массаж"</t>
   </si>
   <si>
     <t>Фильтрация новостей по категории "Благодарность"</t>
   </si>
   <si>
-    <t>Фильтрация новостей по категории "Благодарность", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей по категории "Нужна помощь", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>Фильтрация новостей по категории "Нужна помощь"</t>
   </si>
   <si>
-    <t>Фильтрация новостей без указания категории, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>Фильтрация новостей без указания категории</t>
   </si>
   <si>
-    <t>Поле "Категория" состоит из букв латинского алфавита и цифр, при фильтрации новостей, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
     <t>Фильтрация новостей, без указания категории, в определенный период времени</t>
   </si>
   <si>
-    <t>Фильтрация новостей, без указания категории, в определенный период времени, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей, без указания категории, в определенный период времени, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Сортировка новостей во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>Сортировка вкладок новостей</t>
   </si>
   <si>
-    <t>Просмотр новостей во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Удаление активной новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>Удаление активной новости</t>
   </si>
   <si>
     <t>Редактирование новости</t>
   </si>
   <si>
-    <t>Редактирование новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Смена статуса новости, находящаяся в статусе "Активна" на статус "Не активна", во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>Смена статуса новости находящаяся в статусе "Активна" на статус "Не активна"</t>
   </si>
   <si>
-    <t>Фильтрация новостей по критерию "Активна", во вкладке "Панель управления" новостей мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>Фильтрация новостей по критерию "Активна"</t>
   </si>
   <si>
     <t>Фильтр новостей по категории "Не активна"</t>
   </si>
   <si>
-    <t>Поле "Описание" пустое, при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Исполнения заявки, находящаяся в статусе "В работе", в которой "Автор" и "Исполнитель" заявки совпадают, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный</t>
-  </si>
-  <si>
     <t>Исполнение заявки</t>
   </si>
   <si>
-    <t>Исполнения заявки, находящаяся в статусе "В работе", в которой "Автоор" и "Исполнитель" заявки совпадают, во вкладке "Заявки" мобильного приложения "Мобильный хоспис" (Негативный)</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей по критерию "Не активна", во вкладке "Панель управления" новостей мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Создание новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Поле "Категория" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Поле "Заголовок" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Поле "Дата публикации" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Поле "Время" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Поле "Описание" пустое, при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
     <t>Вкладка "Создание новости"</t>
   </si>
   <si>
     <t>Поле "Логин"</t>
   </si>
   <si>
-    <t>Ввод  данных незарегистрированного пользователя в поле "Логин" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод спецсимволов в поле "Логин" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод одного символа в поле "Логин" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод букв разного регистра в поле "Логин" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод данных незарегистрированного пользователя "Пароль" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод одного символа в поле "Пароль" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод спецсимволов в поле "Пароль" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод букв разного регистра в поле "Пароль" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод одного символа в поле "Тема"  при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод максимально-допустимого количества символов в поле "Тема" при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод данных в поле "Исполнитель" при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод букв и цифр в поле "Исполнитель" при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод специсимволов в поле "Исполнитель" при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод невалидной даты в поле  "Дата" при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Ввод валидного времени в поле "Время", при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Ввод невалидного времени в поле "Время", при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Добавление комментария к заявке во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Редактирование комментария к заявке во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Ввод собственного названия категории в поле "Категория"  при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод цифр в поле "Категория" при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод спецсимволов в поле "Категория" при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>Ввод невалидной даты в поле "Дата публикации"  при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Ввод валидного времени в поле "Время" при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>Ввод невалидного времени в поле "Время" при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+    <t>ТС-1. Авторизация в мобильном приложении "Мобильный хоспис" (Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-2. Поле "Логин" пустое, при авторизации в мобильном приложении "Мобильный хоспис" (Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-3. Ввод  данных незарегистрированного пользователя в поле "Логин" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-4. Ввод спецсимволов в поле "Логин" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-5. Ввод одного символа в поле "Логин" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-6. Ввод букв разного регистра в поле "Логин" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-7. Поле "Пароль" пустое, при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-8. Ввод данных незарегистрированного пользователя "Пароль" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-9. Ввод спецсимволов в поле "Пароль" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-10. Ввод одного символа в поле "Пароль" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-12. Переход во вкладку "Все Новости" через главное меню мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-11. Ввод букв разного регистра в поле "Пароль" при авторизации в мобильном приложении "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-13. Переход во вкладку "Все Заявки" через главное меню мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-14. Фильтрация заявок по критерию "Открыта" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-15. Фильтрация заявок по критерию "В работе" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-16. Фильтрация заявок по критерию "Выполнена" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-17. Фильтрация заявок по критерию "Отмененные" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-18. Создание заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-19. Поле "Тема" пустое, при создании заявки, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-20. Ввод одного символа в поле "Тема"  при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-21. Ввод максимально-допустимого количества символов в поле "Тема" при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-22. Поле "Исполнитель" пустое, при создании заявки, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-23. Ввод данных в поле "Исполнитель" при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-24. Ввод букв и цифр в поле "Исполнитель" при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-25. Ввод специсимволов в поле "Исполнитель" при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-26. Ввод невалидной даты в поле  "Дата" при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-27. Ввод валидного времени в поле "Время", при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-28. Ввод невалидного времени в поле "Время", при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-29. Поле "Описание" пустое, при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-30. Редактирование заявки, находящаяся в статусе "Открыта" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-31. Добавление комментария к заявке во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-32. Редактирование комментария к заявке во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-33. Смена статуса заявки, находящаяся в статусе "Открыта" на статус "В работе", во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-34. Смена статуса заявки, находящаяся в статусе "Открыта" на статус "Отменена", во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-35. Смена статуса заявки, с истекшим сроком исполнения, находящаяся в статусе "Открыта" на статус "В работу", во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-36. Сброс заявки, находящаяся в статусе "В работе" , в которой "Автор" и "Исполнитель" заявки совпадают, во вкладке "Заявки" мобильного приложения "Мобильный хоспис" (Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-37. Сброс заявки, находящаяся в статусе "В работе" , в которой "Автор" и "Исполнитель" заявки совпадают, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-38. Исполнения заявки, находящаяся в статусе "В работе", в которой "Автор" и "Исполнитель" заявки совпадают, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный</t>
+  </si>
+  <si>
+    <t>ТС-39. Исполнения заявки, находящаяся в статусе "В работе", в которой "Автоор" и "Исполнитель" заявки совпадают, во вкладке "Заявки" мобильного приложения "Мобильный хоспис" (Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-40. Просмотр новостей во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-41. Сортировка новостей во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-42. Фильтрация новостей по категории "Объявление", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-43. Фильтрация новостей по категории "День рождения", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-44. Фильтрация новостей по категории "Зарплата", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-45. Фильтрация новостей по категории "Профсоюз", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-46. Фильтрация новостей по категории "Праздник", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-47. Фильтрация новостей по категории "Массаж", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-48. Фильтрация новостей по категории "Благодарность", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-49. Фильтрация новостей по категории "Нужна помощь", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-50. Фильтрация новостей без указания категории, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-51. Поле "Категория" состоит из букв латинского алфавита и цифр, при фильтрации новостей, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-52. Фильтрация новостей, без указания категории, в определенный период времени, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-53. Фильтрация новостей, без указания категории, в определенный период времени, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-54. Сортировка новостей во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-55. Просмотр новостей во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-56. Удаление активной новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-57. Редактирование новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-58. Смена статуса новости, находящаяся в статусе "Активна" на статус "Не активна", во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-59. Фильтрация новостей по критерию "Активна", во вкладке "Панель управления" новостей мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-60. Фильтрация новостей по критерию "Не активна", во вкладке "Панель управления" новостей мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-61. Создание новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-62. Поле "Категория" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-63. Поле "Заголовок" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-64. Поле "Дата публикации" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-65. Поле "Время" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-66. Поле "Описание" пустое, при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-67. Ввод собственного названия категории в поле "Категория"  при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-68. Ввод цифр в поле "Категория" при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-69. Ввод спецсимволов в поле "Категория" при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-70. Ввод невалидной даты в поле "Дата публикации"  при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-71. Ввод валидного времени в поле "Время" при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-72. Ввод невалидного времени в поле "Время" при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-73. Развернуть/свернуть тематическую цитату, во вкладке "Главное - жить любя", мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-74. Просмотр ссылки "Политика конфиденциальности" во вкладке "О приложении" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-75. Просмотр ссылки "Пользовательское соглашение" во вкладке "О приложении" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,25 +521,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -817,11 +816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,37 +835,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
@@ -876,159 +875,159 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>5</v>
@@ -1038,15 +1037,15 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>5</v>
@@ -1056,17 +1055,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>24</v>
+      <c r="A15" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>5</v>
@@ -1076,13 +1075,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>5</v>
@@ -1092,13 +1091,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
@@ -1108,13 +1107,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>5</v>
@@ -1124,15 +1123,15 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>45</v>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>5</v>
@@ -1142,11 +1141,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="6" t="s">
-        <v>46</v>
+      <c r="D20" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>5</v>
@@ -1156,11 +1155,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="6" t="s">
-        <v>118</v>
+      <c r="D21" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>5</v>
@@ -1170,11 +1169,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="6" t="s">
-        <v>119</v>
+      <c r="D22" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>5</v>
@@ -1184,11 +1183,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="6" t="s">
-        <v>47</v>
+      <c r="D23" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>5</v>
@@ -1198,11 +1197,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="6" t="s">
-        <v>120</v>
+      <c r="D24" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>5</v>
@@ -1211,12 +1210,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="6" t="s">
-        <v>121</v>
+      <c r="D25" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>5</v>
@@ -1225,12 +1224,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="6" t="s">
-        <v>122</v>
+      <c r="D26" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>5</v>
@@ -1240,11 +1239,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="6" t="s">
-        <v>123</v>
+      <c r="D27" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>5</v>
@@ -1253,12 +1252,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="6" t="s">
-        <v>124</v>
+      <c r="D28" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>5</v>
@@ -1267,12 +1266,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="6" t="s">
-        <v>125</v>
+      <c r="D29" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>5</v>
@@ -1282,11 +1281,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="6" t="s">
-        <v>97</v>
+      <c r="D30" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>5</v>
@@ -1295,14 +1294,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>5</v>
@@ -1312,13 +1311,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>126</v>
+        <v>36</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>5</v>
@@ -1328,13 +1327,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>127</v>
+        <v>35</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>5</v>
@@ -1344,13 +1343,13 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>5</v>
@@ -1360,11 +1359,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="6" t="s">
-        <v>51</v>
+      <c r="D35" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>5</v>
@@ -1374,11 +1373,11 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="6" t="s">
-        <v>55</v>
+      <c r="D36" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>5</v>
@@ -1387,14 +1386,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>5</v>
@@ -1403,12 +1402,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="6" t="s">
-        <v>58</v>
+      <c r="D38" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>5</v>
@@ -1418,13 +1417,13 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>98</v>
+        <v>56</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>5</v>
@@ -1434,11 +1433,11 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="6" t="s">
-        <v>100</v>
+      <c r="D40" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>5</v>
@@ -1448,17 +1447,17 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>25</v>
+      <c r="A41" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>59</v>
+        <v>38</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>5</v>
@@ -1468,13 +1467,13 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>60</v>
+        <v>39</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>5</v>
@@ -1483,14 +1482,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>5</v>
@@ -1500,13 +1499,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>5</v>
@@ -1516,13 +1515,13 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>5</v>
@@ -1532,13 +1531,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>5</v>
@@ -1548,13 +1547,13 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>71</v>
+        <v>44</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>5</v>
@@ -1564,13 +1563,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>5</v>
@@ -1580,13 +1579,13 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>76</v>
+        <v>46</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>5</v>
@@ -1596,13 +1595,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>5</v>
@@ -1612,13 +1611,13 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>79</v>
+        <v>48</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>5</v>
@@ -1628,11 +1627,11 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="6" t="s">
-        <v>81</v>
+      <c r="D52" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>5</v>
@@ -1642,13 +1641,13 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>83</v>
+        <v>49</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>5</v>
@@ -1658,11 +1657,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="6" t="s">
-        <v>84</v>
+      <c r="D54" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>5</v>
@@ -1672,15 +1671,15 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>5</v>
@@ -1690,13 +1689,13 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>87</v>
+        <v>38</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>5</v>
@@ -1706,13 +1705,13 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>5</v>
@@ -1722,13 +1721,13 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>91</v>
+        <v>52</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>5</v>
@@ -1738,13 +1737,13 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>92</v>
+        <v>53</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>5</v>
@@ -1754,13 +1753,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>94</v>
+        <v>54</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>5</v>
@@ -1770,13 +1769,13 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>101</v>
+        <v>55</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>5</v>
@@ -1786,13 +1785,13 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>102</v>
+        <v>57</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>5</v>
@@ -1801,12 +1800,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="6" t="s">
-        <v>103</v>
+      <c r="D63" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>5</v>
@@ -1815,12 +1814,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
-      <c r="D64" s="6" t="s">
-        <v>104</v>
+      <c r="D64" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>5</v>
@@ -1830,11 +1829,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="6" t="s">
-        <v>105</v>
+      <c r="D65" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>5</v>
@@ -1843,12 +1842,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
-      <c r="D66" s="6" t="s">
-        <v>106</v>
+      <c r="D66" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>5</v>
@@ -1857,12 +1856,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
-      <c r="D67" s="6" t="s">
-        <v>107</v>
+      <c r="D67" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>5</v>
@@ -1872,11 +1871,11 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+      <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
-      <c r="D68" s="6" t="s">
-        <v>128</v>
+      <c r="D68" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>5</v>
@@ -1886,11 +1885,11 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="6" t="s">
-        <v>129</v>
+      <c r="D69" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>5</v>
@@ -1900,11 +1899,11 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+      <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="6" t="s">
-        <v>130</v>
+      <c r="D70" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>5</v>
@@ -1914,11 +1913,11 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+      <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
-      <c r="D71" s="6" t="s">
-        <v>131</v>
+      <c r="D71" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>5</v>
@@ -1928,11 +1927,11 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
-      <c r="D72" s="6" t="s">
-        <v>132</v>
+      <c r="D72" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>5</v>
@@ -1942,11 +1941,11 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
-      <c r="D73" s="6" t="s">
-        <v>133</v>
+      <c r="D73" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>5</v>
@@ -1955,7 +1954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>13</v>
       </c>
@@ -1963,10 +1962,10 @@
         <v>13</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>5</v>
@@ -1976,17 +1975,17 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>26</v>
+      <c r="A75" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>5</v>
@@ -1996,11 +1995,11 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="6" t="s">
-        <v>31</v>
+      <c r="D76" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>5</v>
@@ -2011,11 +2010,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A40"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="C53:C54"/>
@@ -2032,6 +2026,11 @@
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -271,9 +271,6 @@
     <t>ТС-22. Поле "Исполнитель" пустое, при создании заявки, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
   </si>
   <si>
-    <t>ТС-23. Ввод данных в поле "Исполнитель" при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
     <t>ТС-24. Ввод букв и цифр в поле "Исполнитель" при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
   </si>
   <si>
@@ -428,6 +425,9 @@
   </si>
   <si>
     <t>ТС-75. Просмотр ссылки "Пользовательское соглашение" во вкладке "О приложении" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-23. Ввод невалидных данных в поле "Исполнитель" при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
   </si>
 </sst>
 </file>
@@ -527,14 +527,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -820,7 +820,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,16 +855,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -875,10 +875,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -889,10 +889,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -903,10 +903,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -917,10 +917,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="8" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -931,10 +931,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="8" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -945,12 +945,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -961,10 +961,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="8" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -975,10 +975,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="8" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -989,10 +989,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1003,10 +1003,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="8" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1017,7 +1017,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1037,7 +1037,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,10 +1055,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1075,8 +1075,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1091,8 +1091,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1107,8 +1107,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1123,11 +1123,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1141,9 +1141,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="4" t="s">
         <v>77</v>
       </c>
@@ -1155,9 +1155,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="4" t="s">
         <v>78</v>
       </c>
@@ -1169,9 +1169,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="4" t="s">
         <v>79</v>
       </c>
@@ -1183,9 +1183,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="4" t="s">
         <v>80</v>
       </c>
@@ -1196,97 +1196,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="E30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1295,13 +1295,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>5</v>
@@ -1311,13 +1311,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>5</v>
@@ -1327,118 +1327,118 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="E40" s="1" t="s">
         <v>5</v>
       </c>
@@ -1447,17 +1447,17 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>5</v>
@@ -1467,13 +1467,13 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>5</v>
@@ -1483,13 +1483,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>5</v>
@@ -1499,13 +1499,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>5</v>
@@ -1515,13 +1515,13 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>5</v>
@@ -1531,13 +1531,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>5</v>
@@ -1547,13 +1547,13 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>5</v>
@@ -1563,13 +1563,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>5</v>
@@ -1579,13 +1579,13 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>5</v>
@@ -1595,74 +1595,74 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E54" s="1" t="s">
         <v>5</v>
       </c>
@@ -1671,15 +1671,15 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>5</v>
@@ -1689,13 +1689,13 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>5</v>
@@ -1705,13 +1705,13 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>5</v>
@@ -1721,13 +1721,13 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>5</v>
@@ -1737,13 +1737,13 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>5</v>
@@ -1753,13 +1753,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>5</v>
@@ -1769,183 +1769,183 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>5</v>
@@ -1965,27 +1965,27 @@
         <v>25</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>5</v>
@@ -1995,11 +1995,11 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
       <c r="D76" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>5</v>
@@ -2010,6 +2010,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A40"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="C53:C54"/>
@@ -2026,11 +2031,6 @@
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
